--- a/ElasticBeanstalk/DeploymentMethod.xlsx
+++ b/ElasticBeanstalk/DeploymentMethod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Deployment Type</t>
   </si>
@@ -33,9 +33,6 @@
     <t>No DNS Changes</t>
   </si>
   <si>
-    <t>No EC2 Changes</t>
-  </si>
-  <si>
     <t>All at once</t>
   </si>
   <si>
@@ -88,6 +85,24 @@
   </si>
   <si>
     <t>Terminate New EC2</t>
+  </si>
+  <si>
+    <t>Code Deploy to</t>
+  </si>
+  <si>
+    <t>Exists EC2</t>
+  </si>
+  <si>
+    <t>Exists EC2 and New EC2</t>
+  </si>
+  <si>
+    <t>New EC2</t>
+  </si>
+  <si>
+    <t>Blue/Green</t>
+  </si>
+  <si>
+    <t>Swap URL Dns</t>
   </si>
 </sst>
 </file>
@@ -149,20 +164,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -269,6 +270,20 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -283,16 +298,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Deployment Type" dataDxfId="7"/>
-    <tableColumn id="7" name="Impact of failed deployment" dataDxfId="6"/>
-    <tableColumn id="2" name="Deploy Time" dataDxfId="5"/>
-    <tableColumn id="3" name="Zero Downtime" dataDxfId="4"/>
-    <tableColumn id="4" name="No DNS Changes" dataDxfId="3"/>
-    <tableColumn id="6" name="Rollback Process" dataDxfId="2"/>
-    <tableColumn id="5" name="No EC2 Changes" dataDxfId="1"/>
+    <tableColumn id="1" name="Deployment Type" dataDxfId="6"/>
+    <tableColumn id="7" name="Impact of failed deployment" dataDxfId="5"/>
+    <tableColumn id="2" name="Deploy Time" dataDxfId="4"/>
+    <tableColumn id="3" name="Zero Downtime" dataDxfId="3"/>
+    <tableColumn id="4" name="No DNS Changes" dataDxfId="2"/>
+    <tableColumn id="6" name="Rollback Process" dataDxfId="1"/>
+    <tableColumn id="5" name="Code Deploy to" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,7 +579,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -595,110 +610,126 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/ElasticBeanstalk/DeploymentMethod.xlsx
+++ b/ElasticBeanstalk/DeploymentMethod.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
